--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2,28 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12630" yWindow="4020" windowWidth="25770" windowHeight="16650" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking_Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tracking_Main_values" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +75,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -571,7 +594,6 @@
           <t>Matt</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>FY20_1A</t>
@@ -652,7 +674,6 @@
           <t>Reina</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>FY20_1A</t>
@@ -733,7 +754,6 @@
           <t>Multi</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>FY20_1A</t>
@@ -814,7 +834,6 @@
           <t>Multi</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>FY20_1A</t>
@@ -895,7 +914,6 @@
           <t>Matt</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>FY20_1A</t>
@@ -976,7 +994,6 @@
           <t>Matt</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>FY20_1A</t>
@@ -1012,8 +1029,6 @@
           <t>07080105</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>6/3/2024</t>
@@ -1034,7 +1049,6 @@
           <t>2024/06/17</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -1045,7 +1059,6 @@
           <t>Erika</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>FY21_2A</t>
@@ -1054,182 +1067,2184 @@
       <c r="M8" t="inlineStr">
         <is>
           <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07080206</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7/13/2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lower Cedar</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024/06/14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024/07/18</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5/31/2024</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2024/07/18</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07100006</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2/26/2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>North Raccoon</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>8/12/2023</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07100007</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7/30/2023</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>South Raccoon</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2023/08/31</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6/11/2023</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>TODO: RAW, DRAFT, Addl</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07100008</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lake Red Rock</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024/03/24</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07100009</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8/4/2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lower Des Moines</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024/08/04</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>7/25/2024</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10230002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KTG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9/9/2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Floyd</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Erika, Reina</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10230003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8/5/2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Little Sioux</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024/08/07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>E + M</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7/16/2024</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10230004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8/1/2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Monona-Harrison Ditch</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>3/12/2024</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>MIP Validation Passed</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10230005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7/11/2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Maple</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024/06/12</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MIP Exception</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10230007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7/30/2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Boyer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>7/21/2024</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07060005</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2/28/2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Apple-Plum</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>TODO: Missing 0.2% Vel grid</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07080201</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Upper Cedar</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10170204</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5/29/2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024/05/28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10230001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8/20/2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Blackbird-Soldier</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>8/1/2024</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10230006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8/5/2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Big Papillion-Mosquito</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>5/12/2024</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10170203</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3/30/2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Lower Big Sioux</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07060003</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1/30/2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Grant-Little Maquoketa</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07080101</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3/30/2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Copperas-Duck</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07110001</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2/28/2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bear-Wyaconda</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026/03/28</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2026/03/28</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>HUC8</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>FRP</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>P02a_Assign</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>P01_MM</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Draft_MIP</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>FP_MIP</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Hydra_MIP</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Prod Stage</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>RAW_Grd_MM</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>DFIRM_Grd_MM</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Addl_Grd_MM</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>P01 Analyst</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>AECOM Tie-in</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>TO_Area</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Model Complete</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>which_grid</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>FRP_Perc_Complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07060001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/30/2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Coon-Yellow</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>In Backcheck</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07060002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11/30/2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Upper Iowa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>In Backcheck</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024/03/10</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07060004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>In Backcheck</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024/08/27</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07060006</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maquoketa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>In Backcheck</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024/05/17</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07080102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KTG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Upper Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>In Backcheck</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07080103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lower Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>In Backcheck</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Matt</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>0</v>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07080206</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
+          <t>07080105</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7/13/2024</t>
+          <t>6/3/2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lower Cedar</t>
+          <t>South Skunk</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Phase 1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024/06/17</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5/31/2024</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>100</v>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07100006</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>07080206</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2/26/2024</t>
+          <t>7/13/2024</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>North Raccoon</t>
+          <t>Lower Cedar</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>In Backcheck</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>Pass 2/2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>2024/06/14</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>FY21_2A</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8/12/2023</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>0</v>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>5/31/2024</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07100007</t>
+          <t>07100006</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7/30/2023</t>
+          <t>2/26/2024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>South Raccoon</t>
+          <t>North Raccoon</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023/08/31</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -1237,60 +3252,70 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>6/11/2023</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>TODO: RAW, DRAFT, Addl</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>8/12/2023</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07100008</t>
+          <t>07100007</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12/30/2023</t>
+          <t>7/30/2023</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lake Red Rock</t>
+          <t>South Raccoon</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024/03/24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -1298,56 +3323,74 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>2023/08/31</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>6/11/2023</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>TODO: RAW, DRAFT, Addl</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07100009</t>
+          <t>07100008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8/4/2024</t>
+          <t>12/30/2023</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lower Des Moines</t>
+          <t>Lake Red Rock</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -1355,143 +3398,143 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>R+E</t>
+          <t>2024/03/24</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7/25/2024</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10230002</t>
+          <t>07100009</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>KTG</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>8/4/2024</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Floyd</t>
+          <t>Lower Des Moines</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
+          <t>Phase 1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Erika, Reina</t>
+          <t>2024/08/04</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7/8/2024</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
+          <t>7/25/2024</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10230003</t>
+          <t>10230002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>KTG</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8/5/2024</t>
+          <t>9/9/2024</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Little Sioux</t>
+          <t>Floyd</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1501,74 +3544,84 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>E + M</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Erika, Reina</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>7/16/2024</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10230004</t>
+          <t>10230003</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>RK</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8/1/2024</t>
+          <t>8/5/2024</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Monona-Harrison Ditch</t>
+          <t>Little Sioux</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1578,68 +3631,86 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>2024/08/07</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>E + M</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>3/12/2024</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>MIP Validation Passed</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>7/16/2024</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10230005</t>
+          <t>10230004</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7/11/2024</t>
+          <t>8/1/2024</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Maple</t>
+          <t>Monona-Harrison Ditch</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
@@ -1647,64 +3718,86 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>7/8/2024</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>MIP Exception</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>3/12/2024</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10230007</t>
+          <t>10230005</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>RK</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7/30/2024</t>
+          <t>7/11/2024</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Boyer</t>
+          <t>Maple</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
@@ -1712,120 +3805,132 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>7/21/2024</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>MIP Exception</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07060005</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
+          <t>10230007</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2/28/2024</t>
+          <t>7/30/2024</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Apple-Plum</t>
+          <t>Boyer</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1/10/2024</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>TODO: Missing 0.2% Vel grid</t>
-        </is>
-      </c>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>100</v>
+          <t>7/21/2024</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07080201</t>
+          <t>07060005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1835,32 +3940,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12/30/2023</t>
+          <t>2/28/2024</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Upper Cedar</t>
+          <t>Apple-Plum</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1870,147 +3975,171 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>TODO: Missing 0.2% Vel grid</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2024/08/19</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10170204</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>07080201</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5/29/2024</t>
+          <t>12/30/2023</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Upper Cedar</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
+          <t>Pass 2/2</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
+      <c r="S21" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10230001</t>
+          <t>10170204</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>RK</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8/20/2024</t>
+          <t>5/29/2024</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Blackbird-Soldier</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2020,43 +4149,53 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>2024/05/28</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10230006</t>
+          <t>10230001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -2067,100 +4206,114 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8/5/2024</t>
+          <t>8/20/2024</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Big Papillion-Mosquito</t>
+          <t>Blackbird-Soldier</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>2024/08/06</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2024/10/08</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>5/12/2024</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>8/1/2024</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>2024/10/08</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10170203</t>
+          <t>10230006</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3/30/2024</t>
+          <t>8/5/2024</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lower Big Sioux</t>
+          <t>Big Papillion-Mosquito</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2170,124 +4323,136 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>5/12/2024</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07060003</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
+          <t>10170203</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>3/30/2024</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Grant-Little Maquoketa</t>
+          <t>Lower Big Sioux</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>2024/06/26</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>100</v>
+      <c r="S25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07080101</t>
+          <t>07060003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2302,27 +4467,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3/30/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Copperas-Duck</t>
+          <t>Grant-Little Maquoketa</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2332,109 +4497,220 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>2024/05/01</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07110001</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+          <t>07080101</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2/28/2024</t>
+          <t>3/30/2024</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bear-Wyaconda</t>
+          <t>Copperas-Duck</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026/03/28</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>Pass 2/2</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>Reina</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>2026/03/28</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07110001</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2/28/2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bear-Wyaconda</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2411,32 +2411,32 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>Draft_MIP</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>FP_MIP</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>FRP</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>P02a_Assign</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>P01_MM</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Name</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Draft_MIP</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>FP_MIP</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -2508,32 +2508,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>11/30/2023</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Coon-Yellow</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>11/30/2023</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Upper Iowa</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2690,32 +2690,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5/22/2024</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Turkey</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5/22/2024</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Maquoketa</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2872,32 +2872,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>12/30/2023</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Upper Wapsipinicon</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2963,32 +2963,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5/22/2024</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lower Wapsipinicon</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3052,26 +3052,26 @@
           <t>07080105</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>6/3/2024</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>South Skunk</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Next</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3129,32 +3129,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>7/13/2024</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lower Cedar</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3218,26 +3218,26 @@
           <t>07100006</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2/26/2024</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>North Raccoon</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Next</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3289,26 +3289,26 @@
           <t>07100007</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>7/30/2023</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>South Raccoon</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Next</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3364,26 +3364,26 @@
           <t>07100008</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>12/30/2023</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lake Red Rock</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Next</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3435,26 +3435,26 @@
           <t>07100009</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>8/4/2024</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lower Des Moines</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Next</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3506,30 +3506,30 @@
           <t>10230002</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>9/9/2024</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Floyd</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3593,30 +3593,30 @@
           <t>10230003</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>8/5/2024</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Little Sioux</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3680,30 +3680,30 @@
           <t>10230004</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>8/1/2024</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Monona-Harrison Ditch</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3767,30 +3767,30 @@
           <t>10230005</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>7/11/2024</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Maple</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3846,30 +3846,30 @@
           <t>10230007</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>7/30/2024</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Boyer</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3935,32 +3935,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2/28/2024</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Apple-Plum</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4026,32 +4026,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>12/30/2023</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Upper Cedar</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4115,26 +4115,26 @@
           <t>10170204</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>5/29/2024</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Rock</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4198,30 +4198,30 @@
           <t>10230001</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>8/20/2024</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Blackbird-Soldier</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4285,30 +4285,30 @@
           <t>10230006</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>8/5/2024</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Big Papillion-Mosquito</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4372,26 +4372,26 @@
           <t>10170203</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>3/30/2024</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Lower Big Sioux</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4457,32 +4457,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1/30/2024</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Grant-Little Maquoketa</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4548,32 +4548,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>3/30/2024</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Copperas-Duck</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Submitted</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4637,26 +4637,26 @@
           <t>07110001</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>2/28/2024</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Bear-Wyaconda</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Next</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2538,7 +2538,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2394,7 +2394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,75 +2426,80 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>BFE_TODO</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>P02a_Assign</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>P01_MM</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Hydra_MIP</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>which_grid</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Hydra_MIP</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Has AECOM Tie</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>RAW_Grd_MM</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>DFIRM_Grd_MM</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Addl_Grd_MM</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>Prod Stage</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>RAW_Grd_MM</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>DFIRM_Grd_MM</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Addl_Grd_MM</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>P01 Analyst</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>AECOM Tie-in</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>TO_Area</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Model Complete</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>which_grid</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>FRP_Perc_Complete</t>
         </is>
@@ -2523,71 +2528,80 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11/30/2023</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>2023/11/30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>Coon-Yellow</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2614,71 +2628,80 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11/30/2023</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>2023/11/30</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>Upper Iowa</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024/03/10</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024/03/10</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2705,71 +2728,80 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5/22/2024</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024/08/27</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024/08/27</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2796,71 +2828,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5/22/2024</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>Maquoketa</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024/05/17</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2024/05/17</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>12/12/2023</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2887,71 +2928,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12/30/2023</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>Upper Wapsipinicon</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2978,71 +3028,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5/22/2024</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>Lower Wapsipinicon</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2024/05/09</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3063,61 +3122,70 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6/3/2024</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>2024/06/03</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>South Skunk</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>2024/03/05</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2024/06/17</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Erika</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3144,71 +3212,80 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7/13/2024</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>2024/07/13</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Lower Cedar</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024/06/14</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024/07/18</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2024/06/14</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024/07/18</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>5/31/2024</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2024/05/31</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3229,57 +3306,66 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2/26/2024</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>2024/02/26</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>North Raccoon</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>2024/02/13</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
+          <t>2023/08/12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3300,61 +3386,70 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7/30/2023</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>2023/07/30</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>South Raccoon</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>2023/08/31</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>6/11/2023</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2023/06/11</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>TODO: RAW, DRAFT, Addl</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,57 +3470,66 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>12/30/2023</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>Lake Red Rock</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>2024/03/24</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3446,57 +3550,66 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8/4/2024</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>2024/08/04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>Lower Des Moines</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>2024/08/04</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>R+E</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>7/25/2024</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
+          <t>2024/07/25</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3516,75 +3629,88 @@
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9/9/2024</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>2024/09/09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>Floyd</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2024/07/12</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024/09/10</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024/09/12</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Erika, Reina</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>7/8/2024</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
+          <t>2024/07/08</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -3595,82 +3721,95 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WSE/Depth</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024/08/05</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>RK</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8/5/2024</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Little Sioux</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2024/08/07</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2024/08/07</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>E + M</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>7/16/2024</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3690,75 +3829,88 @@
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>Monona-Harrison Ditch</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>3/12/2024</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -3777,67 +3929,88 @@
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7/11/2024</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>2024/07/11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>Maple</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2024/06/12</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2024/06/12</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>7/8/2024</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>MIP Exception</t>
-        </is>
-      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
+          <t>2024/07/08</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>MIP Exception; All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -3848,82 +4021,95 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>WSE/Depth</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7/30/2024</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>Boyer</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2024/07/30</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>7/21/2024</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
+          <t>2024/07/21</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3950,71 +4136,80 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2/28/2024</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>2024/02/28</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>Apple-Plum</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2024/04/04</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>TODO: Missing 0.2% Vel grid</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4041,71 +4236,80 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>12/30/2023</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>Upper Cedar</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2024/08/15</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2024/08/19</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4126,69 +4330,78 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5/29/2024</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>Rock</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2024/05/28</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2024/05/28</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4208,75 +4421,88 @@
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8/20/2024</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>Blackbird-Soldier</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -4295,75 +4521,88 @@
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8/5/2024</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>2024/08/05</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>Big Papillion-Mosquito</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2024/10/08</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>5/12/2024</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
+          <t>2024/05/12</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -4383,69 +4622,78 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3/30/2024</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>2024/03/30</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>In-Progress</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>Lower Big Sioux</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>In-Progress</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4472,71 +4720,80 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1/30/2024</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>2024/01/30</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>Grant-Little Maquoketa</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>12/12/2023</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4563,71 +4820,80 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3/30/2024</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>2024/03/30</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>Copperas-Duck</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2024/05/01</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4648,65 +4914,74 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2/28/2024</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>2024/02/28</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>Bear-Wyaconda</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2394,7 +2394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2501,6 +2501,11 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
+          <t>MIP_Case</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
           <t>FRP_Perc_Complete</t>
         </is>
       </c>
@@ -2601,7 +2606,12 @@
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2701,7 +2711,12 @@
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2801,7 +2816,12 @@
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2901,7 +2921,12 @@
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3001,7 +3026,12 @@
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3101,7 +3131,12 @@
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3185,7 +3220,12 @@
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3325,12 @@
           <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3365,7 +3410,12 @@
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3449,7 +3499,12 @@
           <t>TODO: RAW, DRAFT, Addl</t>
         </is>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3529,7 +3584,12 @@
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,7 +3669,12 @@
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3709,7 +3774,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3809,7 +3879,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3909,7 +3984,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4009,7 +4089,12 @@
           <t>MIP Exception; All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4109,7 +4194,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4209,7 +4299,12 @@
           <t>TODO: Missing 0.2% Vel grid</t>
         </is>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4309,7 +4404,12 @@
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4401,7 +4501,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>23-07-0036S</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4501,7 +4606,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4601,7 +4711,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T24" t="n">
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4693,7 +4808,12 @@
           <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
-      <c r="T25" t="n">
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>23-07-0036S</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4793,7 +4913,12 @@
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4893,7 +5018,12 @@
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4981,7 +5111,12 @@
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2548,7 +2548,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WSE/Depth</t>
+          <t>WSE/Depth; CSLF; Velocity</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WSE/Depth</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4429,7 +4429,11 @@
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>F</t>
@@ -4507,7 +4511,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -4528,7 +4532,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4612,7 +4616,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -4736,7 +4740,11 @@
           <t>In-Progress</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>F</t>
@@ -4814,7 +4822,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -4855,7 +4863,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; Velocity</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>WSE/Depth; Velocity</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>WSE/Depth; PAC; Velocity</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In-Progress</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WSE/Depth; Velocity</t>
+          <t>WSE/Depth; CSLF; Velocity</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>WSE/Depth; PAC; Velocity</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -4421,17 +4421,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; Velocity</t>
+          <t>WSE/Depth; CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -4732,12 +4732,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>In-Progress</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3198,7 +3198,11 @@
           <t>2024/06/17</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -3237,7 +3241,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3387,8 +3391,16 @@
           <t>2024/02/13</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -3472,8 +3484,16 @@
           <t>2023/08/31</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -3561,8 +3581,16 @@
           <t>2024/03/24</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -3646,8 +3674,16 @@
           <t>2024/08/04</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -4863,7 +4899,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -3676,7 +3676,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4558,12 +4558,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4558,12 +4558,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">

--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -2,33 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12630" yWindow="4020" windowWidth="25770" windowHeight="16650" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracking_Main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tracking_Main_values" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tracking_Main_values" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tracking_Main" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,27 +38,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -75,17 +56,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -448,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,243 +442,268 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FRP</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>P02a_Assign</t>
+          <t>TO Area</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>P01_MM</t>
+          <t>Draft</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Floodplain</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>RAW_Grd_MM</t>
+          <t>Hydraulics</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DFIRM_Grd_MM</t>
+          <t>P01 GDB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Addl_Grd_MM</t>
+          <t>RAW Grids</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>DFIRM Grids</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Additional Grids</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Missing Grids</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Prod Stage</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>FRP %</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Model Complete</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>P01 Analyst</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>AECOM Tie-in</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>TO_Area</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Model Complete</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>which_grid</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Addl_Gri_1</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>FRP_Perc_Complete</t>
+          <t>Has AECOM Tie</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MIP_Case</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07060001</t>
+          <t>07060005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Apple-Plum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/30/2023</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Coon-Yellow</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
+      <c r="M2" t="n">
+        <v>100</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2024/01/10</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>100</v>
+          <t>TODO: Missing 0.2% Vel grid</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07060002</t>
+          <t>07080201</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Upper Cedar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MB</t>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11/30/2023</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Upper Iowa</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024/03/10</t>
+          <t>2023/12/30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
+      <c r="M3" t="n">
+        <v>100</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>100</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -711,76 +714,86 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5/22/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>2024/04/15</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>2024/08/27</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>100</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -791,291 +804,356 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Maquoketa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5/22/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Maquoketa</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>2024/05/17</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2024/05/21</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>2024/05/21</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>12/12/2023</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>100</v>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07080102</t>
+          <t>07080103</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Lower Wapsipinicon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KTG</t>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12/30/2023</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Upper Wapsipinicon</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>2024/08/14</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>100</v>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07080103</t>
+          <t>07060002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Upper Iowa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5/22/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lower Wapsipinicon</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>100</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>100</v>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07080105</t>
+          <t>07060003</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grant-Little Maquoketa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6/3/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>South Skunk</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/01/30</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1086,1301 +1164,1654 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Lower Cedar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7/13/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lower Cedar</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024/07/13</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>2024/06/14</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>2024/07/16</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2024/07/18</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024/05/31</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>5/31/2024</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>100</v>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07100006</t>
+          <t>07080101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Copperas-Duck</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2/26/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>North Raccoon</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024/03/30</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07100007</t>
+          <t>07060001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coon-Yellow</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7/30/2023</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>South Raccoon</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023/08/31</t>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023/11/30</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>6/11/2023</t>
-        </is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>100</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>TODO: RAW, DRAFT, Addl</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07100008</t>
+          <t>07080102</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Upper Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12/30/2023</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lake Red Rock</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024/03/24</t>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>2024/08/14</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07100009</t>
+          <t>07100008</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lake Red Rock</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8/4/2024</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lower Des Moines</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2024/03/24</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>R+E</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>7/25/2024</t>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10230002</t>
+          <t>07100009</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lower Des Moines</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KTG</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Floyd</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/08/04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/08/04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Erika, Reina</t>
+          <t>2024/11/20</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>7/8/2024</t>
-        </is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2024/09/12</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10230003</t>
+          <t>07100006</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>North Raccoon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8/5/2024</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Little Sioux</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/02/26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>E + M</t>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>7/16/2024</t>
-        </is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2023/08/12</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10230004</t>
+          <t>07100007</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>South Raccoon</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8/1/2024</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Monona-Harrison Ditch</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2023/07/30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Reina</t>
+          <t>2023/08/31</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>3/12/2024</t>
-        </is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MIP Validation Passed</t>
+          <t>2023/06/11</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
+          <t>TODO: RAW, DRAFT, Addl</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10230005</t>
+          <t>07080105</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>South Skunk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7/11/2024</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Maple</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024/06/03</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>2024/06/17</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>7/8/2024</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>MIP Exception</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10230007</t>
+          <t>07110001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bear-Wyaconda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7/30/2024</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Boyer</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>Next</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024/02/28</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>7/21/2024</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07060005</t>
+          <t>10170203</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Lower Big Sioux</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2/28/2024</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Apple-Plum</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>100</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>TODO: Missing 0.2% Vel grid</t>
+          <t>2024/02/10</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>100</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>23-07-0036S</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07080201</t>
+          <t>10230007</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Boyer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12/30/2023</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Upper Cedar</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>100</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2024/07/21</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>100</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10170204</t>
+          <t>10230005</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Maple</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5/29/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
+      <c r="M21" t="n">
+        <v>100</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
+          <t>MIP Exception; All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10230001</t>
+          <t>10230002</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Floyd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8/20/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Blackbird-Soldier</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
+      <c r="M22" t="n">
+        <v>100</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>Erika, Reina</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10230006</t>
+          <t>10230004</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Monona-Harrison Ditch</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8/5/2024</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Big Papillion-Mosquito</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>2024/10/07</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2024/10/08</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="M23" t="n">
+        <v>100</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>5/12/2024</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10170203</t>
+          <t>10170204</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3/30/2024</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lower Big Sioux</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="M24" t="n">
+        <v>100</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>23-07-0036S</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07060003</t>
+          <t>10230006</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Big Papillion-Mosquito</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Grant-Little Maquoketa</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>12/12/2023</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>100</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2024/05/12</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>100</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07080101</t>
+          <t>10230003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Little Sioux</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3/30/2024</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Copperas-Duck</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>100</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>2024/07/16</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>E + M</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>100</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07110001</t>
+          <t>10230001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Blackbird-Soldier</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2/28/2024</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bear-Wyaconda</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026/03/28</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>100</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>All on MM</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2026/03/28</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2394,361 +2825,405 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>HUC8</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TO Area</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Floodplain</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Hydraulics</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P01 GDB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RAW Grids</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DFIRM Grids</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Additional Grids</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Missing Grids</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Prod Stage</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>FRP %</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Model Complete</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>P01 Analyst</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Has AECOM Tie</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MIP_Case</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>HUC8</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Draft_MIP</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>FP_MIP</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>FRP</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>BFE_TODO</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>P02a_Assign</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>P01_MM</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Hydra_MIP</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>which_grid</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Has AECOM Tie</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>RAW_Grd_MM</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>DFIRM_Grd_MM</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Addl_Grd_MM</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Prod Stage</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>P01 Analyst</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>TO_Area</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Model Complete</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>MIP_Case</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>FRP_Perc_Complete</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07060005</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Apple-Plum</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024/02/28</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>TODO: Missing 0.2% Vel grid</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>21-07-0002S</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07060001</t>
+          <t>07080201</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Upper Cedar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2023/12/30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Coon-Yellow</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>100</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>Passed MIP Validation</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
           <t>21-07-0002S</t>
         </is>
-      </c>
-      <c r="U3" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07060002</t>
+          <t>07060004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MB</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>2024/08/27</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Upper Iowa</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024/03/10</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
           <t>21-07-0002S</t>
         </is>
-      </c>
-      <c r="U4" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07060004</t>
+          <t>07060006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Maquoketa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2758,102 +3233,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024/08/27</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
           <t>21-07-0002S</t>
         </is>
-      </c>
-      <c r="U5" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07060006</t>
+          <t>07080103</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Lower Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2863,669 +3323,596 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Maquoketa</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024/05/17</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
           <t>21-07-0002S</t>
         </is>
-      </c>
-      <c r="U6" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07080102</t>
+          <t>07060002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Upper Iowa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>KTG</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023/12/30</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>2024/03/10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Upper Wapsipinicon</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>100</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
           <t>21-07-0002S</t>
         </is>
-      </c>
-      <c r="U7" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07080103</t>
+          <t>07060003</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Grant-Little Maquoketa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>2024/01/30</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Lower Wapsipinicon</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024/05/09</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
           <t>21-07-0002S</t>
         </is>
-      </c>
-      <c r="U8" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07080105</t>
+          <t>07080206</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>Lower Cedar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/07/13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2024/07/16</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>South Skunk</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024/05/31</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2024/03/05</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2024/06/17</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>22-07-0035S</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07080206</t>
+          <t>07080101</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Copperas-Duck</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024/07/13</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Lower Cedar</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024/06/14</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2024/07/18</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation; Round 2 Validation 10/11/2024</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
           <t>21-07-0002S</t>
         </is>
-      </c>
-      <c r="U10" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07100006</t>
+          <t>07060001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>Coon-Yellow</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>North Raccoon</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>All on MM</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>100</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>NaT</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Passed MIP Validation</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>FY21_2A</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2023/08/12</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>22-07-0035S</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07100007</t>
+          <t>07080102</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>Upper Wapsipinicon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2023/07/30</t>
+          <t>2023/12/30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>2024/08/14</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>South Raccoon</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2023/08/31</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2023/06/11</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>TODO: RAW, DRAFT, Addl</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>22-07-0035S</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
+          <t>21-07-0002S</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -3536,21 +3923,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Lake Red Rock</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Next</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Next</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>2023/12/30</t>
@@ -3558,67 +3953,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+          <t>2024/03/24</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Lake Red Rock</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2024/03/24</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
           <t>22-07-0035S</t>
         </is>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3629,21 +4001,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Lower Des Moines</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Next</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Next</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Next</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>2024/08/04</t>
@@ -3651,1520 +4031,1189 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Next</t>
+          <t>2024/08/04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>2024/11/20</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Lower Des Moines</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2024/07/25</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2024/11/20</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>R+E</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
           <t>22-07-0035S</t>
         </is>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10230002</t>
+          <t>07100006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>North Raccoon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>KTG</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/02/26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Floyd</t>
-        </is>
-      </c>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2024/09/10</t>
-        </is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2023/08/12</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Erika, Reina</t>
-        </is>
-      </c>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>23-07-0037S</t>
-        </is>
-      </c>
-      <c r="U15" t="n">
-        <v>100</v>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10230003</t>
+          <t>07100007</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>South Raccoon</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2023/07/30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Little Sioux</t>
-        </is>
-      </c>
+          <t>2023/08/31</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2023/06/11</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024/08/07</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>E + M</t>
+          <t>TODO: RAW, DRAFT, Addl</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>23-07-0037S</t>
-        </is>
-      </c>
-      <c r="U16" t="n">
-        <v>100</v>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10230004</t>
+          <t>07080105</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>South Skunk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Monona-Harrison Ditch</t>
-        </is>
-      </c>
+          <t>2024/06/17</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2023/11/11</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>23-07-0037S</t>
-        </is>
-      </c>
-      <c r="U17" t="n">
-        <v>100</v>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10230005</t>
+          <t>07110001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Bear-Wyaconda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>Next</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Maple</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2024/10/16</t>
-        </is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/01/10</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>MIP Exception; All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>23-07-0037S</t>
-        </is>
-      </c>
-      <c r="U18" t="n">
-        <v>100</v>
+          <t>22-07-0035S</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10230007</t>
+          <t>10170203</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Lower Big Sioux</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Boyer</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2024/10/15</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>100</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/02/10</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2024/07/21</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>23-07-0037S</t>
-        </is>
-      </c>
-      <c r="U19" t="n">
-        <v>100</v>
+          <t>23-07-0036S</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07060005</t>
+          <t>10230007</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Boyer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Apple-Plum</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2024/04/05</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>100</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/07/21</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>TODO: Missing 0.2% Vel grid</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>21-07-0002S</t>
-        </is>
-      </c>
-      <c r="U20" t="n">
-        <v>100</v>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07080201</t>
+          <t>10230005</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Maple</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2023/12/30</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Upper Cedar</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2024/08/15</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>100</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>MIP Exception; All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>21-07-0002S</t>
-        </is>
-      </c>
-      <c r="U21" t="n">
-        <v>100</v>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10170204</t>
+          <t>10230002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Floyd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Rock</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>100</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2024/07/08</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Erika, Reina</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2024/05/28</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>23-07-0036S</t>
-        </is>
-      </c>
-      <c r="U22" t="n">
-        <v>100</v>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10230001</t>
+          <t>10230004</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Monona-Harrison Ditch</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Blackbird-Soldier</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>100</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
           <t>23-07-0037S</t>
         </is>
-      </c>
-      <c r="U23" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10230006</t>
+          <t>10170204</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Big Papillion-Mosquito</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>100</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/02/10</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2024/05/12</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>23-07-0037S</t>
-        </is>
-      </c>
-      <c r="U24" t="n">
-        <v>100</v>
+          <t>23-07-0036S</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10170203</t>
+          <t>10230006</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Big Papillion-Mosquito</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>In Backcheck</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Lower Big Sioux</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>100</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/05/12</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Pass 1/2</t>
+          <t>Reina</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>FY22_3B</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>All Hydraulics Spatial Files uploaded 10/16</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>23-07-0036S</t>
-        </is>
-      </c>
-      <c r="U25" t="n">
-        <v>100</v>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07060003</t>
+          <t>10230003</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Little Sioux</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Grant-Little Maquoketa</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>100</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/07/16</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>E + M</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>21-07-0002S</t>
-        </is>
-      </c>
-      <c r="U26" t="n">
-        <v>100</v>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07080101</t>
+          <t>10230001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Blackbird-Soldier</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>FY22_3B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WSE/Depth; CSLF; PAC; Velocity</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Copperas-Duck</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024/04/20</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>100</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Pass 2/2</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Reina</t>
+          <t>All Hydraulics Spatial Files uploaded 10/16</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>FY20_1A</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>21-07-0002S</t>
-        </is>
-      </c>
-      <c r="U27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>07110001</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2024/02/28</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Next</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Bear-Wyaconda</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>22-07-0035S</t>
-        </is>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
+          <t>23-07-0037S</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/tables/IA_BLE_Tracking.xlsx
+++ b/data/tables/IA_BLE_Tracking.xlsx
@@ -17,7 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -549,7 +553,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -557,15 +561,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024/02/28</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024/04/04</t>
-        </is>
+      <c r="G2" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45386</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -590,10 +590,8 @@
       <c r="M2" t="n">
         <v>100</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
+      <c r="N2" s="2" t="n">
+        <v>45301</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -639,7 +637,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -647,15 +645,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
+      <c r="G3" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45366</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -680,10 +674,8 @@
       <c r="M3" t="n">
         <v>100</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N3" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -729,7 +721,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -737,15 +729,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
+      <c r="G4" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45397</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -770,10 +758,8 @@
       <c r="M4" t="n">
         <v>100</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N4" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -819,7 +805,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -827,15 +813,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024/05/17</t>
-        </is>
+      <c r="G5" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45429</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -860,10 +842,8 @@
       <c r="M5" t="n">
         <v>100</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
+      <c r="N5" s="2" t="n">
+        <v>45272</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -909,7 +889,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -917,15 +897,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2024/05/09</t>
-        </is>
+      <c r="G6" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45421</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -950,10 +926,8 @@
       <c r="M6" t="n">
         <v>100</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
+      <c r="N6" s="2" t="n">
+        <v>45301</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -999,7 +973,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,15 +981,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2023/11/30</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
+      <c r="G7" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45345</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1040,10 +1010,8 @@
       <c r="M7" t="n">
         <v>100</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
+      <c r="N7" s="2" t="n">
+        <v>45211</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1089,7 +1057,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1097,15 +1065,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024/01/30</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
+      <c r="G8" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45366</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1130,10 +1094,8 @@
       <c r="M8" t="n">
         <v>100</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
+      <c r="N8" s="2" t="n">
+        <v>45272</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1179,7 +1141,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1187,15 +1149,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2024/07/13</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2024/06/14</t>
-        </is>
+      <c r="G9" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45457</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1220,10 +1178,8 @@
       <c r="M9" t="n">
         <v>100</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2024/05/31</t>
-        </is>
+      <c r="N9" s="2" t="n">
+        <v>45443</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1269,7 +1225,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1277,15 +1233,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2024/03/30</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
+      <c r="G10" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45402</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1310,10 +1262,8 @@
       <c r="M10" t="n">
         <v>100</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
+      <c r="N10" s="2" t="n">
+        <v>45332</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1359,7 +1309,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1367,15 +1317,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2023/11/30</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
+      <c r="G11" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45345</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1400,10 +1346,8 @@
       <c r="M11" t="n">
         <v>100</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
+      <c r="N11" s="2" t="n">
+        <v>45211</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1449,7 +1393,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1457,15 +1401,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
+      <c r="G12" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45397</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1490,10 +1430,8 @@
       <c r="M12" t="n">
         <v>100</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N12" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1547,15 +1485,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2024/03/24</t>
-        </is>
+      <c r="G13" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45375</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1572,10 +1506,8 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N13" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1625,15 +1557,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2024/08/04</t>
-        </is>
+      <c r="G14" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45508</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1654,10 +1582,8 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2024/07/25</t>
-        </is>
+      <c r="N14" s="2" t="n">
+        <v>45498</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1707,15 +1633,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2024/02/26</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2024/02/13</t>
-        </is>
+      <c r="G15" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45335</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1732,10 +1654,8 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2023/08/12</t>
-        </is>
+      <c r="N15" s="2" t="n">
+        <v>45150</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,15 +1705,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2023/07/30</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2023/08/31</t>
-        </is>
+      <c r="G16" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45169</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1810,10 +1726,8 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2023/06/11</t>
-        </is>
+      <c r="N16" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1867,15 +1781,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2024/06/03</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2024/03/05</t>
-        </is>
+      <c r="G17" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45356</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1896,10 +1806,8 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N17" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1949,15 +1857,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2024/02/28</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
+      <c r="G18" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45377</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1982,10 +1886,8 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
+      <c r="N18" s="2" t="n">
+        <v>45301</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2035,15 +1937,11 @@
           <t>In Backcheck</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2024/03/30</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
+      <c r="G19" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45436</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2068,10 +1966,8 @@
       <c r="M19" t="n">
         <v>100</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
+      <c r="N19" s="2" t="n">
+        <v>45332</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2125,15 +2021,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2024/07/30</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2024/07/30</t>
-        </is>
+      <c r="G20" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45503</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2158,10 +2050,8 @@
       <c r="M20" t="n">
         <v>100</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2024/07/21</t>
-        </is>
+      <c r="N20" s="2" t="n">
+        <v>45494</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2215,15 +2105,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2024/07/11</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2024/06/12</t>
-        </is>
+      <c r="G21" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45455</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2248,10 +2134,8 @@
       <c r="M21" t="n">
         <v>100</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
+      <c r="N21" s="2" t="n">
+        <v>45481</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2305,15 +2189,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2024/09/09</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2024/07/12</t>
-        </is>
+      <c r="G22" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45485</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2338,10 +2218,8 @@
       <c r="M22" t="n">
         <v>100</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
+      <c r="N22" s="2" t="n">
+        <v>45481</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2395,15 +2273,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
+      <c r="G23" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2428,10 +2302,8 @@
       <c r="M23" t="n">
         <v>100</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2024/03/12</t>
-        </is>
+      <c r="N23" s="2" t="n">
+        <v>45363</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2485,15 +2357,11 @@
           <t>In Backcheck</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2024/05/28</t>
-        </is>
+      <c r="G24" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45440</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2518,10 +2386,8 @@
       <c r="M24" t="n">
         <v>100</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
+      <c r="N24" s="2" t="n">
+        <v>45332</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2575,15 +2441,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2024/08/05</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
+      <c r="G25" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45510</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2608,10 +2470,8 @@
       <c r="M25" t="n">
         <v>100</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2024/05/12</t>
-        </is>
+      <c r="N25" s="2" t="n">
+        <v>45424</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2665,15 +2525,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2024/08/05</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2024/08/07</t>
-        </is>
+      <c r="G26" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45511</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2698,10 +2554,8 @@
       <c r="M26" t="n">
         <v>100</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
+      <c r="N26" s="2" t="n">
+        <v>45489</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2755,15 +2609,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
+      <c r="G27" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45510</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2788,10 +2638,8 @@
       <c r="M27" t="n">
         <v>100</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
+      <c r="N27" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2948,7 +2796,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2956,15 +2804,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024/02/28</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024/04/04</t>
-        </is>
+      <c r="G2" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45386</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2989,10 +2833,8 @@
       <c r="M2" t="n">
         <v>100</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
+      <c r="N2" s="2" t="n">
+        <v>45301</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3038,7 +2880,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3046,15 +2888,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
+      <c r="G3" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45366</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -3079,10 +2917,8 @@
       <c r="M3" t="n">
         <v>100</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N3" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3128,7 +2964,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3136,15 +2972,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
+      <c r="G4" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45397</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -3169,10 +3001,8 @@
       <c r="M4" t="n">
         <v>100</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N4" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3218,7 +3048,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3226,15 +3056,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024/05/17</t>
-        </is>
+      <c r="G5" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45429</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3259,10 +3085,8 @@
       <c r="M5" t="n">
         <v>100</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
+      <c r="N5" s="2" t="n">
+        <v>45272</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3308,7 +3132,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3316,15 +3140,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2024/05/09</t>
-        </is>
+      <c r="G6" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45421</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3349,10 +3169,8 @@
       <c r="M6" t="n">
         <v>100</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
+      <c r="N6" s="2" t="n">
+        <v>45301</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3398,7 +3216,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3406,15 +3224,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2023/11/30</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
+      <c r="G7" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45345</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -3439,10 +3253,8 @@
       <c r="M7" t="n">
         <v>100</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
+      <c r="N7" s="2" t="n">
+        <v>45211</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3488,7 +3300,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3496,15 +3308,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024/01/30</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
+      <c r="G8" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45366</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -3529,10 +3337,8 @@
       <c r="M8" t="n">
         <v>100</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
+      <c r="N8" s="2" t="n">
+        <v>45272</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3578,7 +3384,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3586,15 +3392,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2024/07/13</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2024/06/14</t>
-        </is>
+      <c r="G9" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45457</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -3619,10 +3421,8 @@
       <c r="M9" t="n">
         <v>100</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2024/05/31</t>
-        </is>
+      <c r="N9" s="2" t="n">
+        <v>45443</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3668,7 +3468,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>In Backcheck</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3676,15 +3476,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2024/03/30</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
+      <c r="G10" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45402</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3709,10 +3505,8 @@
       <c r="M10" t="n">
         <v>100</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
+      <c r="N10" s="2" t="n">
+        <v>45332</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -3758,7 +3552,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3766,15 +3560,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2023/11/30</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
+      <c r="G11" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45345</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3799,10 +3589,8 @@
       <c r="M11" t="n">
         <v>100</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
+      <c r="N11" s="2" t="n">
+        <v>45211</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -3848,7 +3636,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3856,15 +3644,11 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
+      <c r="G12" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45397</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3889,10 +3673,8 @@
       <c r="M12" t="n">
         <v>100</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N12" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -3946,15 +3728,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2024/03/24</t>
-        </is>
+      <c r="G13" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45375</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -3971,10 +3749,8 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N13" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4024,15 +3800,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2024/08/04</t>
-        </is>
+      <c r="G14" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45508</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4053,10 +3825,8 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2024/07/25</t>
-        </is>
+      <c r="N14" s="2" t="n">
+        <v>45498</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -4106,15 +3876,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2024/02/26</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2024/02/13</t>
-        </is>
+      <c r="G15" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45335</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -4131,10 +3897,8 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2023/08/12</t>
-        </is>
+      <c r="N15" s="2" t="n">
+        <v>45150</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -4184,15 +3948,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2023/07/30</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2023/08/31</t>
-        </is>
+      <c r="G16" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45169</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -4209,10 +3969,8 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2023/06/11</t>
-        </is>
+      <c r="N16" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -4266,15 +4024,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2024/06/03</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2024/03/05</t>
-        </is>
+      <c r="G17" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45356</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4295,10 +4049,8 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
+      <c r="N17" s="2" t="n">
+        <v>45241</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -4348,15 +4100,11 @@
           <t>Next</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2024/02/28</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
+      <c r="G18" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45377</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -4381,10 +4129,8 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
+      <c r="N18" s="2" t="n">
+        <v>45301</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -4434,15 +4180,11 @@
           <t>In Backcheck</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2024/03/30</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
+      <c r="G19" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45436</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -4467,10 +4209,8 @@
       <c r="M19" t="n">
         <v>100</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
+      <c r="N19" s="2" t="n">
+        <v>45332</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -4524,15 +4264,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2024/07/30</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2024/07/30</t>
-        </is>
+      <c r="G20" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45503</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -4557,10 +4293,8 @@
       <c r="M20" t="n">
         <v>100</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2024/07/21</t>
-        </is>
+      <c r="N20" s="2" t="n">
+        <v>45494</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -4614,15 +4348,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2024/07/11</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2024/06/12</t>
-        </is>
+      <c r="G21" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45455</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -4647,10 +4377,8 @@
       <c r="M21" t="n">
         <v>100</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
+      <c r="N21" s="2" t="n">
+        <v>45481</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -4704,15 +4432,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2024/09/09</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2024/07/12</t>
-        </is>
+      <c r="G22" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45485</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -4737,10 +4461,8 @@
       <c r="M22" t="n">
         <v>100</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
+      <c r="N22" s="2" t="n">
+        <v>45481</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -4794,15 +4516,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
+      <c r="G23" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -4827,10 +4545,8 @@
       <c r="M23" t="n">
         <v>100</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2024/03/12</t>
-        </is>
+      <c r="N23" s="2" t="n">
+        <v>45363</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -4884,15 +4600,11 @@
           <t>In Backcheck</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2024/05/28</t>
-        </is>
+      <c r="G24" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45440</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -4917,10 +4629,8 @@
       <c r="M24" t="n">
         <v>100</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
+      <c r="N24" s="2" t="n">
+        <v>45332</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -4974,15 +4684,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2024/08/05</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
+      <c r="G25" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45510</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5007,10 +4713,8 @@
       <c r="M25" t="n">
         <v>100</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2024/05/12</t>
-        </is>
+      <c r="N25" s="2" t="n">
+        <v>45424</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -5064,15 +4768,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2024/08/05</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2024/08/07</t>
-        </is>
+      <c r="G26" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45511</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5097,10 +4797,8 @@
       <c r="M26" t="n">
         <v>100</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
+      <c r="N26" s="2" t="n">
+        <v>45489</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -5154,15 +4852,11 @@
           <t>Submitted</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
+      <c r="G27" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45510</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5187,10 +4881,8 @@
       <c r="M27" t="n">
         <v>100</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
+      <c r="N27" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
